--- a/email.xlsx
+++ b/email.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moksh\Desktop\Email-Marketing-Automation-Software-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lakshay\python-email-sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAD8BB9-2658-45F9-B75B-9C48C6C145AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7F176E-6AC7-4C2A-B260-D638C479B74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -46,16 +46,33 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>laxayramanandi@gmail.com</t>
+  </si>
+  <si>
+    <t>vishalagravat555@gmail.com</t>
+  </si>
+  <si>
+    <t>riddhiramanandi73@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -366,10 +386,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -383,16 +406,25 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -405,6 +437,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{01566BED-D2DA-4AF6-BC55-E5E6B0B5B296}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{54728363-61CA-4262-9138-01F556275EE9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{D4419660-F7D7-4A38-B6AE-FA8B0DE10980}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>